--- a/2018_bisc_RVC_Fish_condensed.xlsx
+++ b/2018_bisc_RVC_Fish_condensed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="0" windowWidth="20040" windowHeight="13840" tabRatio="500"/>
+    <workbookView xWindow="4300" yWindow="0" windowWidth="18740" windowHeight="14020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="23">
   <si>
     <t>site</t>
   </si>
@@ -86,6 +86,9 @@
   <si>
     <t>lane_snapper</t>
   </si>
+  <si>
+    <t>dog_snapper</t>
+  </si>
 </sst>
 </file>
 
@@ -140,8 +143,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -162,19 +169,23 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -504,11 +515,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F179"/>
+  <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A186" sqref="A186"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -805,13 +816,14 @@
         <v>7</v>
       </c>
       <c r="C15" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1">
-        <v>16</v>
+        <f>AVERAGE(E15:F15)</f>
+        <v>19</v>
       </c>
       <c r="E15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="1">
         <v>28</v>
@@ -845,13 +857,14 @@
         <v>10</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1">
-        <v>11</v>
+        <f>AVERAGE(E17:F17)</f>
+        <v>7.5</v>
       </c>
       <c r="E17" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F17" s="1">
         <v>11</v>
@@ -1125,13 +1138,14 @@
         <v>10</v>
       </c>
       <c r="C31" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" s="1">
-        <v>9.5</v>
+        <f>AVERAGE(E31:F31)</f>
+        <v>8.5</v>
       </c>
       <c r="E31" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F31" s="1">
         <v>10</v>
@@ -1346,14 +1360,14 @@
         <v>7</v>
       </c>
       <c r="C42" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D42" s="1">
         <f>AVERAGE(E42:F42)</f>
-        <v>25.5</v>
+        <v>23.5</v>
       </c>
       <c r="E42" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F42" s="1">
         <v>37</v>
@@ -1567,7 +1581,7 @@
         <v>10</v>
       </c>
       <c r="C53" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D53" s="2">
         <f>AVERAGE(E53:F53)</f>
@@ -1826,13 +1840,14 @@
         <v>15</v>
       </c>
       <c r="C66" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" s="1">
-        <v>13</v>
+        <f>AVERAGE(E66:F66)</f>
+        <v>12</v>
       </c>
       <c r="E66" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F66" s="1">
         <v>14</v>
@@ -1880,22 +1895,22 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C69" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D69" s="1">
-        <v>8.25</v>
+        <v>30</v>
       </c>
       <c r="E69" s="1">
-        <v>7.5</v>
+        <v>30</v>
       </c>
       <c r="F69" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1903,19 +1918,19 @@
         <v>1304</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C70" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" s="1">
-        <v>15</v>
+        <v>8.25</v>
       </c>
       <c r="E70" s="1">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="F70" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1923,19 +1938,19 @@
         <v>1304</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C71" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D71" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E71" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F71" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1943,19 +1958,19 @@
         <v>1304</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
         <v>13</v>
       </c>
-      <c r="C72" s="1">
-        <v>8</v>
-      </c>
-      <c r="D72" s="1">
-        <v>7.5</v>
-      </c>
       <c r="E72" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F72" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1963,19 +1978,19 @@
         <v>1304</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C73" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D73" s="1">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="E73" s="1">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="F73" s="1">
-        <v>10.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1983,7 +1998,7 @@
         <v>1304</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C74" s="1">
         <v>2</v>
@@ -1992,50 +2007,50 @@
         <v>10</v>
       </c>
       <c r="E74" s="1">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="F74" s="1">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>1305</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C75" s="2">
-        <v>1</v>
-      </c>
-      <c r="D75" s="4">
-        <v>8</v>
-      </c>
-      <c r="E75" s="2">
-        <v>8</v>
-      </c>
-      <c r="F75" s="2">
-        <v>8</v>
+        <v>1304</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2</v>
+      </c>
+      <c r="D75" s="1">
+        <v>10</v>
+      </c>
+      <c r="E75" s="1">
+        <v>9</v>
+      </c>
+      <c r="F75" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>1305</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" s="1">
-        <v>3</v>
-      </c>
-      <c r="D76" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="E76" s="1">
-        <v>6</v>
-      </c>
-      <c r="F76" s="1">
-        <v>7</v>
+      <c r="B76" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1</v>
+      </c>
+      <c r="D76" s="4">
+        <v>8</v>
+      </c>
+      <c r="E76" s="2">
+        <v>8</v>
+      </c>
+      <c r="F76" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2043,19 +2058,19 @@
         <v>1305</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C77" s="1">
-        <v>4</v>
-      </c>
-      <c r="D77" s="3">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="D77" s="1">
+        <v>6.5</v>
       </c>
       <c r="E77" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F77" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2063,19 +2078,19 @@
         <v>1305</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C78" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E78" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F78" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2083,19 +2098,19 @@
         <v>1305</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C79" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" s="3">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E79" s="1">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F79" s="1">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2103,19 +2118,19 @@
         <v>1305</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C80" s="1">
         <v>1</v>
       </c>
       <c r="D80" s="3">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E80" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F80" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2123,20 +2138,19 @@
         <v>1305</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C81" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D81" s="3">
-        <f>AVERAGE(8,13)</f>
-        <v>10.5</v>
+        <v>27</v>
       </c>
       <c r="E81" s="1">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="F81" s="1">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2144,19 +2158,20 @@
         <v>1305</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C82" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" s="3">
-        <v>9</v>
+        <f>AVERAGE(8,13)</f>
+        <v>10.5</v>
       </c>
       <c r="E82" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F82" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2164,40 +2179,39 @@
         <v>1305</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C83" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D83" s="3">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E83" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F83" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C84" s="1">
-        <v>3</v>
-      </c>
-      <c r="D84" s="1">
-        <f>AVERAGE(E84:F84)</f>
-        <v>9.5</v>
+        <v>16</v>
+      </c>
+      <c r="D84" s="3">
+        <v>16</v>
       </c>
       <c r="E84" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F84" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2205,19 +2219,20 @@
         <v>1306</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C85" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D85" s="1">
-        <v>20</v>
+        <f>AVERAGE(E85:F85)</f>
+        <v>9.5</v>
       </c>
       <c r="E85" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F85" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2225,19 +2240,19 @@
         <v>1306</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
       </c>
       <c r="D86" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E86" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F86" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2245,39 +2260,39 @@
         <v>1306</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C87" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87" s="1">
-        <v>13.5</v>
+        <v>5</v>
       </c>
       <c r="E87" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F87" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>1361</v>
+        <v>1306</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C88" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" s="1">
-        <v>8.1666666666666661</v>
+        <v>13.5</v>
       </c>
       <c r="E88" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F88" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2285,19 +2300,19 @@
         <v>1361</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C89" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D89" s="1">
-        <v>30</v>
+        <v>8.1666666666666661</v>
       </c>
       <c r="E89" s="1">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F89" s="1">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2305,19 +2320,19 @@
         <v>1361</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C90" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D90" s="1">
-        <v>18.25</v>
+        <v>30</v>
       </c>
       <c r="E90" s="1">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F90" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2325,19 +2340,19 @@
         <v>1361</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="1">
+        <v>4</v>
+      </c>
+      <c r="D91" s="1">
+        <v>18.25</v>
+      </c>
+      <c r="E91" s="1">
         <v>13</v>
       </c>
-      <c r="C91" s="1">
-        <v>2</v>
-      </c>
-      <c r="D91" s="1">
-        <v>9</v>
-      </c>
-      <c r="E91" s="1">
-        <v>8</v>
-      </c>
       <c r="F91" s="1">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2345,60 +2360,59 @@
         <v>1361</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C92" s="1">
         <v>2</v>
       </c>
       <c r="D92" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E92" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F92" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C93" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D93" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E93" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F93" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>1576</v>
+        <v>1365</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C94" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D94" s="1">
-        <f>AVERAGE(E94:F94)</f>
-        <v>23.5</v>
+        <v>0</v>
       </c>
       <c r="E94" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F94" s="1">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2406,19 +2420,20 @@
         <v>1576</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="1">
         <v>9</v>
       </c>
-      <c r="C95" s="1">
-        <v>1</v>
-      </c>
       <c r="D95" s="1">
-        <v>30</v>
+        <f>AVERAGE(E95:F95)</f>
+        <v>19.5</v>
       </c>
       <c r="E95" s="1">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F95" s="1">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2426,61 +2441,60 @@
         <v>1576</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C96" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D96" s="1">
-        <f>AVERAGE(E96:F96)</f>
-        <v>15.5</v>
+        <v>30</v>
       </c>
       <c r="E96" s="1">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F96" s="1">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C97" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D97" s="1">
-        <v>0</v>
+        <f>AVERAGE(E97:F97)</f>
+        <v>10.5</v>
       </c>
       <c r="E97" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F97" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>1588</v>
+        <v>1580</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C98" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D98" s="1">
-        <f>AVERAGE(13,20)</f>
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="E98" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F98" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2488,19 +2502,20 @@
         <v>1588</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C99" s="1">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D99" s="1">
-        <v>16.5</v>
+        <f>AVERAGE(E99:F99)</f>
+        <v>17.5</v>
       </c>
       <c r="E99" s="1">
         <v>10</v>
       </c>
       <c r="F99" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2508,19 +2523,19 @@
         <v>1588</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C100" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D100" s="1">
-        <v>24</v>
+        <v>16.5</v>
       </c>
       <c r="E100" s="1">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F100" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2528,19 +2543,19 @@
         <v>1588</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C101" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D101" s="1">
         <v>24</v>
       </c>
       <c r="E101" s="1">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F101" s="1">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2548,19 +2563,19 @@
         <v>1588</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C102" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D102" s="1">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E102" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F102" s="1">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2568,19 +2583,20 @@
         <v>1588</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C103" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D103" s="1">
-        <v>29</v>
+        <f>AVERAGE(E103:F103)</f>
+        <v>10</v>
       </c>
       <c r="E103" s="1">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F103" s="1">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2588,60 +2604,59 @@
         <v>1588</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C104" s="1">
         <v>1</v>
       </c>
       <c r="D104" s="1">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E104" s="1">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F104" s="1">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C105" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D105" s="1">
-        <f>AVERAGE(E105:F105)</f>
-        <v>26.5</v>
+        <v>18</v>
       </c>
       <c r="E105" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F105" s="1">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C106" s="1">
         <v>1</v>
       </c>
       <c r="D106" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E106" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F106" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2649,19 +2664,20 @@
         <v>1591</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C107" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D107" s="1">
-        <v>25</v>
+        <f>AVERAGE(E107:F107)</f>
+        <v>25.5</v>
       </c>
       <c r="E107" s="1">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F107" s="1">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2669,81 +2685,80 @@
         <v>1591</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C108" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D108" s="1">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E108" s="1">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F108" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>1594</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" s="2">
-        <v>2</v>
-      </c>
-      <c r="D109" s="2">
-        <f>AVERAGE(E109:F109)</f>
-        <v>26.5</v>
-      </c>
-      <c r="E109" s="2">
-        <v>14</v>
-      </c>
-      <c r="F109" s="2">
-        <v>39</v>
+        <v>1591</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1</v>
+      </c>
+      <c r="D109" s="1">
+        <v>25</v>
+      </c>
+      <c r="E109" s="1">
+        <v>25</v>
+      </c>
+      <c r="F109" s="1">
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C110" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D110" s="1">
-        <f>AVERAGE(E110:F110)</f>
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="E110" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F110" s="1">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
         <v>1594</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C111" s="1">
-        <v>1</v>
-      </c>
-      <c r="D111" s="1">
-        <v>32</v>
-      </c>
-      <c r="E111" s="1">
-        <v>32</v>
-      </c>
-      <c r="F111" s="1">
-        <v>32</v>
+      <c r="B111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" s="2">
+        <v>2</v>
+      </c>
+      <c r="D111" s="2">
+        <f>AVERAGE(E111:F111)</f>
+        <v>26.5</v>
+      </c>
+      <c r="E111" s="2">
+        <v>14</v>
+      </c>
+      <c r="F111" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2751,47 +2766,48 @@
         <v>1594</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C112" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D112" s="1">
-        <v>5</v>
+        <f>AVERAGE(E112:F112)</f>
+        <v>17.5</v>
       </c>
       <c r="E112" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F112" s="1">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C113" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D113" s="1">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E113" s="1">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F113" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C114" s="1">
         <v>1</v>
@@ -2811,19 +2827,19 @@
         <v>1595</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="1">
         <v>12</v>
       </c>
-      <c r="C115" s="1">
-        <v>1</v>
-      </c>
       <c r="D115" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E115" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F115" s="1">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2831,59 +2847,59 @@
         <v>1595</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C116" s="1">
         <v>1</v>
       </c>
       <c r="D116" s="1">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E116" s="1">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="F116" s="1">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C117" s="1">
         <v>1</v>
       </c>
       <c r="D117" s="1">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E117" s="1">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F117" s="1">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C118" s="1">
         <v>1</v>
       </c>
       <c r="D118" s="1">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E118" s="1">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F118" s="1">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2891,19 +2907,19 @@
         <v>1596</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C119" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D119" s="1">
-        <v>16.25</v>
+        <v>4</v>
       </c>
       <c r="E119" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F119" s="1">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2911,19 +2927,19 @@
         <v>1596</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C120" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D120" s="1">
-        <v>32.5</v>
+        <v>18</v>
       </c>
       <c r="E120" s="1">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F120" s="1">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2931,101 +2947,99 @@
         <v>1596</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C121" s="1">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D121" s="1">
-        <v>6.666666666666667</v>
+        <v>16.25</v>
       </c>
       <c r="E121" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F121" s="1">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>1597</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C122" s="2">
-        <v>16</v>
-      </c>
-      <c r="D122" s="2">
+        <v>1596</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E122" s="2">
-        <v>10</v>
-      </c>
-      <c r="F122" s="2">
-        <v>17</v>
+      <c r="C122" s="1">
+        <v>2</v>
+      </c>
+      <c r="D122" s="1">
+        <v>32.5</v>
+      </c>
+      <c r="E122" s="1">
+        <v>30</v>
+      </c>
+      <c r="F122" s="1">
+        <v>35</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>1597</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C123" s="2">
-        <v>1</v>
-      </c>
-      <c r="D123" s="2">
-        <v>17</v>
-      </c>
-      <c r="E123" s="2">
-        <v>17</v>
-      </c>
-      <c r="F123" s="2">
-        <v>17</v>
+        <v>1596</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="1">
+        <v>23</v>
+      </c>
+      <c r="D123" s="1">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="E123" s="1">
+        <v>6</v>
+      </c>
+      <c r="F123" s="1">
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>1598</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C124" s="1">
-        <v>15</v>
-      </c>
-      <c r="D124" s="1">
-        <f>AVERAGE(E124:F124)</f>
+        <v>1597</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="2">
+        <v>16</v>
+      </c>
+      <c r="D124" s="2">
+        <v>14</v>
+      </c>
+      <c r="E124" s="2">
+        <v>10</v>
+      </c>
+      <c r="F124" s="2">
         <v>17</v>
-      </c>
-      <c r="E124" s="1">
-        <v>14</v>
-      </c>
-      <c r="F124" s="1">
-        <v>20</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>1598</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125" s="1">
-        <v>13</v>
-      </c>
-      <c r="D125" s="1">
-        <f>AVERAGE(E125:F125)</f>
-        <v>20</v>
-      </c>
-      <c r="E125" s="1">
-        <v>8</v>
-      </c>
-      <c r="F125" s="1">
-        <v>32</v>
+        <v>1597</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" s="2">
+        <v>1</v>
+      </c>
+      <c r="D125" s="2">
+        <v>17</v>
+      </c>
+      <c r="E125" s="2">
+        <v>17</v>
+      </c>
+      <c r="F125" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3033,20 +3047,20 @@
         <v>1598</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C126" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D126" s="1">
         <f>AVERAGE(E126:F126)</f>
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E126" s="1">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F126" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3054,60 +3068,61 @@
         <v>1598</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C127" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D127" s="1">
-        <v>16</v>
+        <f>AVERAGE(E127:F127)</f>
+        <v>20</v>
       </c>
       <c r="E127" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F127" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C128" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D128" s="1">
-        <v>14</v>
+        <f>AVERAGE(E128:F128)</f>
+        <v>21</v>
       </c>
       <c r="E128" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F128" s="1">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C129" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D129" s="1">
-        <f>AVERAGE(E129:F129)</f>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E129" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F129" s="1">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3115,19 +3130,19 @@
         <v>1599</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" s="1">
+        <v>15</v>
+      </c>
+      <c r="D130" s="1">
         <v>14</v>
       </c>
-      <c r="C130" s="1">
-        <v>1</v>
-      </c>
-      <c r="D130" s="1">
-        <v>9</v>
-      </c>
       <c r="E130" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F130" s="1">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3135,121 +3150,122 @@
         <v>1599</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C131" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D131" s="1">
-        <v>13.5</v>
+        <f>AVERAGE(E131:F131)</f>
+        <v>24</v>
       </c>
       <c r="E131" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F131" s="1">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>1601</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C132" s="2">
-        <v>8</v>
-      </c>
-      <c r="D132" s="2">
-        <f>AVERAGE(E132:F132)</f>
-        <v>28.5</v>
-      </c>
-      <c r="E132" s="2">
+        <v>1599</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F132" s="2">
-        <v>43</v>
+      <c r="C132" s="1">
+        <v>1</v>
+      </c>
+      <c r="D132" s="1">
+        <v>9</v>
+      </c>
+      <c r="E132" s="1">
+        <v>9</v>
+      </c>
+      <c r="F132" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>1601</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C133" s="2">
-        <v>5</v>
-      </c>
-      <c r="D133" s="2">
-        <f>AVERAGE(E133:F133)</f>
+        <v>1599</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" s="1">
+        <v>2</v>
+      </c>
+      <c r="D133" s="1">
         <v>13.5</v>
       </c>
-      <c r="E133" s="2">
-        <v>8</v>
-      </c>
-      <c r="F133" s="2">
-        <v>19</v>
+      <c r="E133" s="1">
+        <v>7</v>
+      </c>
+      <c r="F133" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
         <v>1601</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C134" s="1">
-        <v>1</v>
-      </c>
-      <c r="D134" s="1">
-        <v>20</v>
-      </c>
-      <c r="E134" s="1">
-        <v>20</v>
-      </c>
-      <c r="F134" s="1">
-        <v>20</v>
+      <c r="B134" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" s="2">
+        <v>8</v>
+      </c>
+      <c r="D134" s="2">
+        <f>AVERAGE(E134:F134)</f>
+        <v>28.5</v>
+      </c>
+      <c r="E134" s="2">
+        <v>14</v>
+      </c>
+      <c r="F134" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
-        <v>1631</v>
-      </c>
-      <c r="B135" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" s="2">
+        <v>5</v>
+      </c>
+      <c r="D135" s="2">
+        <f>AVERAGE(E135:F135)</f>
+        <v>13.5</v>
+      </c>
+      <c r="E135" s="2">
+        <v>8</v>
+      </c>
+      <c r="F135" s="2">
         <v>19</v>
-      </c>
-      <c r="C135" s="1">
-        <v>3</v>
-      </c>
-      <c r="D135" s="1">
-        <v>6</v>
-      </c>
-      <c r="E135" s="1">
-        <v>5</v>
-      </c>
-      <c r="F135" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>1631</v>
+        <v>1601</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C136" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D136" s="1">
-        <v>5.25</v>
+        <v>20</v>
       </c>
       <c r="E136" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F136" s="1">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3257,19 +3273,19 @@
         <v>1631</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C137" s="1">
+        <v>3</v>
+      </c>
+      <c r="D137" s="1">
+        <v>6</v>
+      </c>
+      <c r="E137" s="1">
         <v>5</v>
       </c>
-      <c r="D137" s="1">
-        <v>15.5</v>
-      </c>
-      <c r="E137" s="1">
-        <v>9</v>
-      </c>
       <c r="F137" s="1">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3277,19 +3293,19 @@
         <v>1631</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C138" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D138" s="1">
-        <v>18</v>
+        <v>5.25</v>
       </c>
       <c r="E138" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F138" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3297,19 +3313,19 @@
         <v>1631</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C139" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D139" s="1">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="E139" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F139" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3317,101 +3333,100 @@
         <v>1631</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C140" s="1">
         <v>1</v>
       </c>
       <c r="D140" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E140" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F140" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
-        <v>1669</v>
+        <v>1631</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C141" s="1">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D141" s="1">
-        <f>AVERAGE(E141:F141)</f>
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="E141" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F141" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
-        <v>1727</v>
+        <v>1631</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C142" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D142" s="1">
-        <f>AVERAGE(E142:F142)</f>
-        <v>25.5</v>
+        <v>17</v>
       </c>
       <c r="E142" s="1">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F142" s="1">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
-        <v>1727</v>
+        <v>1669</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C143" s="1">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D143" s="1">
-        <v>32</v>
+        <f>AVERAGE(E143:F143)</f>
+        <v>16.5</v>
       </c>
       <c r="E143" s="1">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F143" s="1">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
-        <v>1727</v>
+        <v>1669</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C144" s="1">
         <v>1</v>
       </c>
       <c r="D144" s="1">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E144" s="1">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F144" s="1">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3419,19 +3434,20 @@
         <v>1727</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C145" s="1">
         <v>3</v>
       </c>
       <c r="D145" s="1">
-        <v>7</v>
+        <f>AVERAGE(E145:F145)</f>
+        <v>25.5</v>
       </c>
       <c r="E145" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F145" s="1">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3439,79 +3455,79 @@
         <v>1727</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C146" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146" s="1">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E146" s="1">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F146" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1">
-        <v>1801</v>
+        <v>1727</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C147" s="1">
         <v>1</v>
       </c>
       <c r="D147" s="1">
-        <v>3.5</v>
+        <v>50</v>
       </c>
       <c r="E147" s="1">
-        <v>3.5</v>
+        <v>50</v>
       </c>
       <c r="F147" s="1">
-        <v>3.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1">
-        <v>1801</v>
+        <v>1727</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C148" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D148" s="1">
-        <v>11.75</v>
+        <v>7</v>
       </c>
       <c r="E148" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F148" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1">
-        <v>1801</v>
+        <v>1727</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C149" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D149" s="1">
         <v>14</v>
       </c>
       <c r="E149" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F149" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3519,19 +3535,19 @@
         <v>1801</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C150" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D150" s="1">
-        <v>14.5</v>
+        <v>3.5</v>
       </c>
       <c r="E150" s="1">
-        <v>14</v>
+        <v>3.5</v>
       </c>
       <c r="F150" s="1">
-        <v>15</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3539,19 +3555,19 @@
         <v>1801</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C151" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D151" s="1">
-        <v>9.625</v>
+        <v>11.75</v>
       </c>
       <c r="E151" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F151" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3559,19 +3575,19 @@
         <v>1801</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C152" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D152" s="1">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="E152" s="1">
         <v>14</v>
       </c>
       <c r="F152" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3579,64 +3595,64 @@
         <v>1801</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C153" s="1">
         <v>2</v>
       </c>
       <c r="D153" s="1">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="E153" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F153" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C154" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D154" s="1">
-        <v>11.5</v>
+        <v>9.625</v>
       </c>
       <c r="E154" s="1">
+        <v>9</v>
+      </c>
+      <c r="F154" s="1">
         <v>11</v>
-      </c>
-      <c r="F154" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C155" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D155" s="1">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="E155" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F155" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>12</v>
@@ -3645,13 +3661,13 @@
         <v>2</v>
       </c>
       <c r="D156" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E156" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F156" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3659,20 +3675,19 @@
         <v>1802</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C157" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D157" s="1">
-        <f>AVERAGE(15.1666666666667,19.5)</f>
-        <v>17.33333333333335</v>
+        <v>11.5</v>
       </c>
       <c r="E157" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F157" s="1">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3680,101 +3695,100 @@
         <v>1802</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C158" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D158" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E158" s="1">
         <v>10</v>
       </c>
       <c r="F158" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="19" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" s="1">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C159" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D159" s="1">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E159" s="1">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F159" s="1">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C160" s="1">
-        <f>AVERAGE(E160:F160)</f>
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="D160" s="1">
-        <v>16</v>
+        <f>AVERAGE(15.1666666666667,19.5)</f>
+        <v>17.33333333333335</v>
       </c>
       <c r="E160" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F160" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C161" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D161" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E161" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F161" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="19" customHeight="1">
       <c r="A162" s="1">
         <v>1804</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C162" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D162" s="1">
-        <f>AVERAGE(E162:F162)</f>
-        <v>9.5</v>
+        <v>35</v>
       </c>
       <c r="E162" s="1">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F162" s="1">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3782,20 +3796,20 @@
         <v>1804</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C163" s="1">
-        <v>2</v>
+        <f>AVERAGE(E163:F163)</f>
+        <v>16.5</v>
       </c>
       <c r="D163" s="1">
-        <f>AVERAGE(E163:F163)</f>
-        <v>27.5</v>
+        <v>16</v>
       </c>
       <c r="E163" s="1">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F163" s="1">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3803,19 +3817,19 @@
         <v>1804</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C164" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D164" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E164" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F164" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3823,16 +3837,17 @@
         <v>1804</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C165" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D165" s="1">
-        <v>12</v>
+        <f>AVERAGE(E165:F165)</f>
+        <v>9.5</v>
       </c>
       <c r="E165" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F165" s="1">
         <v>12</v>
@@ -3840,102 +3855,103 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
-        <v>1805</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C166" s="2">
-        <v>1</v>
-      </c>
-      <c r="D166" s="2">
-        <v>16</v>
-      </c>
-      <c r="E166" s="2">
-        <v>16</v>
-      </c>
-      <c r="F166" s="2">
-        <v>16</v>
+        <v>1804</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="1">
+        <v>2</v>
+      </c>
+      <c r="D166" s="1">
+        <f>AVERAGE(E166:F166)</f>
+        <v>27.5</v>
+      </c>
+      <c r="E166" s="1">
+        <v>25</v>
+      </c>
+      <c r="F166" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
-        <v>1805</v>
-      </c>
-      <c r="B167" s="2" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C167" s="1">
+        <v>1</v>
+      </c>
+      <c r="D167" s="1">
         <v>12</v>
       </c>
-      <c r="C167" s="2">
-        <v>2</v>
-      </c>
-      <c r="D167" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="E167" s="2">
-        <v>17</v>
-      </c>
-      <c r="F167" s="2">
-        <v>18</v>
+      <c r="E167" s="1">
+        <v>12</v>
+      </c>
+      <c r="F167" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1">
-        <v>1858</v>
+        <v>1804</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C168" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D168" s="1">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="E168" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F168" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
-        <v>1858</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C169" s="1">
-        <v>2</v>
-      </c>
-      <c r="D169" s="1">
-        <v>34</v>
-      </c>
-      <c r="E169" s="1">
-        <v>33</v>
-      </c>
-      <c r="F169" s="1">
-        <v>35</v>
+        <v>1805</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="2">
+        <v>1</v>
+      </c>
+      <c r="D169" s="2">
+        <v>16</v>
+      </c>
+      <c r="E169" s="2">
+        <v>16</v>
+      </c>
+      <c r="F169" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1">
-        <v>1858</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C170" s="1">
-        <v>8</v>
-      </c>
-      <c r="D170" s="1">
-        <v>8.875</v>
-      </c>
-      <c r="E170" s="1">
-        <v>7</v>
-      </c>
-      <c r="F170" s="1">
-        <v>11</v>
+        <v>1805</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" s="2">
+        <v>2</v>
+      </c>
+      <c r="D170" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="E170" s="2">
+        <v>17</v>
+      </c>
+      <c r="F170" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3943,19 +3959,19 @@
         <v>1858</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C171" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D171" s="1">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="E171" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F171" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3963,19 +3979,19 @@
         <v>1858</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C172" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D172" s="1">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E172" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F172" s="1">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3983,19 +3999,19 @@
         <v>1858</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C173" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D173" s="1">
-        <v>18.666666666666668</v>
+        <v>8.875</v>
       </c>
       <c r="E173" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F173" s="1">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4003,19 +4019,19 @@
         <v>1858</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C174" s="1">
         <v>1</v>
       </c>
       <c r="D174" s="1">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E174" s="1">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F174" s="1">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4023,19 +4039,19 @@
         <v>1858</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C175" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D175" s="1">
-        <v>29.222222222222225</v>
+        <v>31</v>
       </c>
       <c r="E175" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F175" s="1">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4043,19 +4059,19 @@
         <v>1858</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="1">
         <v>13</v>
       </c>
-      <c r="C176" s="1">
-        <v>2</v>
-      </c>
       <c r="D176" s="1">
-        <v>7</v>
+        <v>18.666666666666668</v>
       </c>
       <c r="E176" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F176" s="1">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4063,59 +4079,465 @@
         <v>1858</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C177" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D177" s="1">
-        <v>13.166666666666666</v>
+        <v>25</v>
       </c>
       <c r="E177" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F177" s="1">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1">
-        <v>1864</v>
+        <v>1858</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C178" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D178" s="1">
-        <v>11</v>
+        <v>29.222222222222225</v>
       </c>
       <c r="E178" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F178" s="1">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1">
+        <v>1858</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" s="1">
+        <v>2</v>
+      </c>
+      <c r="D179" s="1">
+        <v>7</v>
+      </c>
+      <c r="E179" s="1">
+        <v>7</v>
+      </c>
+      <c r="F179" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="1">
+        <v>1858</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C180" s="1">
+        <v>8</v>
+      </c>
+      <c r="D180" s="1">
+        <v>13.166666666666666</v>
+      </c>
+      <c r="E180" s="1">
+        <v>10</v>
+      </c>
+      <c r="F180" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="1">
         <v>1864</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B181" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" s="1">
+        <v>1</v>
+      </c>
+      <c r="D181" s="1">
+        <v>11</v>
+      </c>
+      <c r="E181" s="1">
+        <v>11</v>
+      </c>
+      <c r="F181" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="1">
+        <v>1864</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C179" s="1">
-        <v>1</v>
-      </c>
-      <c r="D179" s="1">
-        <v>10</v>
-      </c>
-      <c r="E179" s="1">
-        <v>10</v>
-      </c>
-      <c r="F179" s="1">
-        <v>10</v>
+      <c r="C182" s="1">
+        <v>1</v>
+      </c>
+      <c r="D182" s="1">
+        <v>10</v>
+      </c>
+      <c r="E182" s="1">
+        <v>10</v>
+      </c>
+      <c r="F182" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="1">
+        <v>1169</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C183" s="1">
+        <v>1</v>
+      </c>
+      <c r="D183" s="1">
+        <v>5</v>
+      </c>
+      <c r="E183" s="1">
+        <v>5</v>
+      </c>
+      <c r="F183" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="1">
+        <v>1093</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C184" s="1">
+        <v>0</v>
+      </c>
+      <c r="D184" s="1">
+        <v>0</v>
+      </c>
+      <c r="E184" s="1">
+        <v>0</v>
+      </c>
+      <c r="F184" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="1">
+        <v>1364</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C185" s="1">
+        <v>9</v>
+      </c>
+      <c r="D185" s="1">
+        <f>AVERAGE(E185:F185)</f>
+        <v>19.5</v>
+      </c>
+      <c r="E185" s="1">
+        <v>13</v>
+      </c>
+      <c r="F185" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="1">
+        <v>1364</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C186" s="1">
+        <v>4</v>
+      </c>
+      <c r="D186" s="1">
+        <f>AVERAGE(E186:F186)</f>
+        <v>12.5</v>
+      </c>
+      <c r="E186" s="1">
+        <v>11</v>
+      </c>
+      <c r="F186" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="1">
+        <v>1364</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" s="1">
+        <v>1</v>
+      </c>
+      <c r="D187" s="1">
+        <v>17</v>
+      </c>
+      <c r="E187" s="1">
+        <v>17</v>
+      </c>
+      <c r="F187" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="1">
+        <v>1364</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C188" s="1">
+        <v>5</v>
+      </c>
+      <c r="D188" s="1">
+        <f>AVERAGE(E188:F188)</f>
+        <v>7.5</v>
+      </c>
+      <c r="E188" s="1">
+        <v>5</v>
+      </c>
+      <c r="F188" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="1">
+        <v>1364</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C189" s="1">
+        <v>2</v>
+      </c>
+      <c r="D189" s="1">
+        <f>AVERAGE(E189:F189)</f>
+        <v>24.5</v>
+      </c>
+      <c r="E189" s="1">
+        <v>21</v>
+      </c>
+      <c r="F189" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="1">
+        <v>1364</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C190" s="1">
+        <v>1</v>
+      </c>
+      <c r="D190" s="1">
+        <v>43</v>
+      </c>
+      <c r="E190" s="1">
+        <v>43</v>
+      </c>
+      <c r="F190" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="1">
+        <v>1364</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C191" s="1">
+        <v>2</v>
+      </c>
+      <c r="D191" s="1">
+        <v>10</v>
+      </c>
+      <c r="E191" s="1">
+        <v>10</v>
+      </c>
+      <c r="F191" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="1">
+        <v>1863</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192" s="1">
+        <v>16</v>
+      </c>
+      <c r="D192" s="1">
+        <v>23</v>
+      </c>
+      <c r="E192" s="1">
+        <v>23</v>
+      </c>
+      <c r="F192" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="1">
+        <v>1863</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C193" s="1">
+        <v>51</v>
+      </c>
+      <c r="D193" s="1">
+        <f>AVERAGE(E193:F193)</f>
+        <v>16.5</v>
+      </c>
+      <c r="E193" s="1">
+        <v>10</v>
+      </c>
+      <c r="F193" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="1">
+        <v>1863</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C194" s="1">
+        <v>1</v>
+      </c>
+      <c r="D194" s="1">
+        <v>26</v>
+      </c>
+      <c r="E194" s="1">
+        <v>26</v>
+      </c>
+      <c r="F194" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="1">
+        <v>1863</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C195" s="1">
+        <v>5</v>
+      </c>
+      <c r="D195" s="1">
+        <f>AVERAGE(E195:F195)</f>
+        <v>11</v>
+      </c>
+      <c r="E195" s="1">
+        <v>9</v>
+      </c>
+      <c r="F195" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="1">
+        <v>1863</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C196" s="1">
+        <v>1</v>
+      </c>
+      <c r="D196" s="1">
+        <v>39</v>
+      </c>
+      <c r="E196" s="1">
+        <v>39</v>
+      </c>
+      <c r="F196" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="1">
+        <v>1863</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C197" s="1">
+        <v>26</v>
+      </c>
+      <c r="D197" s="1">
+        <v>15</v>
+      </c>
+      <c r="E197" s="1">
+        <v>10</v>
+      </c>
+      <c r="F197" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="1">
+        <v>1863</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198" s="1">
+        <v>2</v>
+      </c>
+      <c r="D198" s="1">
+        <v>15</v>
+      </c>
+      <c r="E198" s="1">
+        <v>15</v>
+      </c>
+      <c r="F198" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="1">
+        <v>1863</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C199" s="1">
+        <v>2</v>
+      </c>
+      <c r="D199" s="1">
+        <v>10</v>
+      </c>
+      <c r="E199" s="1">
+        <v>9</v>
+      </c>
+      <c r="F199" s="1">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
